--- a/Truckstop_data/CO_truck_stops (version 1).xlsb.xlsx
+++ b/Truckstop_data/CO_truck_stops (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHOUVIK\Desktop\ElectroT\web_scraper\Truckstop_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{44A58BBF-0464-433F-8E21-170544993C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4E2DCF-DFCB-41D6-B3DA-8949923E8797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{95D9399E-8AA2-4E21-8BFE-6B9954B4BF17}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="CO_truck_stops" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1381,14 +1380,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33799C42-CFDB-4D64-98FC-76870D5101F2}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="5" max="5" width="42.109375" customWidth="1"/>
+    <col min="5" max="5" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">

--- a/Truckstop_data/CO_truck_stops (version 1).xlsb.xlsx
+++ b/Truckstop_data/CO_truck_stops (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHOUVIK\Desktop\ElectroT\web_scraper\Truckstop_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4E2DCF-DFCB-41D6-B3DA-8949923E8797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A2C34E-081A-45DF-B9FF-644D8FF860E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{95D9399E-8AA2-4E21-8BFE-6B9954B4BF17}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{95D9399E-8AA2-4E21-8BFE-6B9954B4BF17}"/>
   </bookViews>
   <sheets>
     <sheet name="CO_truck_stops" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="158">
   <si>
     <t>State</t>
   </si>
@@ -49,96 +49,63 @@
     <t>Exit 11</t>
   </si>
   <si>
-    <t>9960 SANTA FE TRAILTRINIDAD, CO 81082</t>
-  </si>
-  <si>
     <t>LOVE'S TRAVEL STOP #660</t>
   </si>
   <si>
     <t>Exit 49</t>
   </si>
   <si>
-    <t>99800 I-25WALSENBURG, CO 81089</t>
-  </si>
-  <si>
     <t>TRAVEL CENTERS OF AMERICA EXPRESS #649</t>
   </si>
   <si>
     <t>Exit 52</t>
   </si>
   <si>
-    <t>455 US 85WALSENBURG, CO 81089</t>
-  </si>
-  <si>
     <t>CIRCLE K</t>
   </si>
   <si>
     <t>Exit 74</t>
   </si>
   <si>
-    <t>8950 S I-25COLORADO CITY, CO 81004</t>
-  </si>
-  <si>
     <t>TOMAHAWK AUTO &amp; TRUCK PLAZA</t>
   </si>
   <si>
     <t>Exit 128</t>
   </si>
   <si>
-    <t>1103 S SANTA FE AVEFOUNTAIN, CO 80817</t>
-  </si>
-  <si>
     <t>FAST MARKET</t>
   </si>
   <si>
     <t>Exit 158</t>
   </si>
   <si>
-    <t>1310 W BAPTIST RDMONUMENT, CO 80921</t>
-  </si>
-  <si>
     <t>PILOT TRAVEL CENTER #1110</t>
   </si>
   <si>
-    <t>15455 TERRAZZO DRMONUMENT, CO 80132</t>
-  </si>
-  <si>
     <t>FREDERICK TRAVEL CENTER</t>
   </si>
   <si>
     <t>Exit 235</t>
   </si>
   <si>
-    <t>3768 CO 52FREDERICK, CO 80516</t>
-  </si>
-  <si>
     <t>Exit 240</t>
   </si>
   <si>
     <t>LONGMONT TRUCK STOP</t>
   </si>
   <si>
-    <t>3851 CO 119LONGMONT, CO 80504</t>
-  </si>
-  <si>
     <t>LOVE'S TRAVEL STOP #668</t>
   </si>
   <si>
     <t>Exit 250</t>
   </si>
   <si>
-    <t>3800 E CO 56BERTHOUD, CO 80513</t>
-  </si>
-  <si>
     <t>PETRO JOHNSON'S CORNER #399</t>
   </si>
   <si>
     <t>Exit 254</t>
   </si>
   <si>
-    <t>2842 SE FRONTAGE RDJOHNSTOWN, CO 80534</t>
-  </si>
-  <si>
     <t>ALTA CONVENIENCE</t>
   </si>
   <si>
@@ -148,138 +115,87 @@
     <t>Exit 19</t>
   </si>
   <si>
-    <t>555 RAPTOR RDFRUITA, CO 81521</t>
-  </si>
-  <si>
     <t>LOVE'S TRAVEL STOP #517</t>
   </si>
   <si>
     <t>Exit 26</t>
   </si>
   <si>
-    <t>748 22 ROADGRAND JUNCTION, CO 81505</t>
-  </si>
-  <si>
     <t>PILOT TRAVEL CENTER #592</t>
   </si>
   <si>
-    <t>2195 US 6GRAND JUNCTION, CO 81505</t>
-  </si>
-  <si>
     <t>TRAVEL CENTERS OF AMERICA EXPRESS #264</t>
   </si>
   <si>
-    <t>2222 US 6GRAND JUNCTION, CO 81505</t>
-  </si>
-  <si>
     <t>EAGLE'S NEST TRUCK STOP</t>
   </si>
   <si>
     <t>Exit 47</t>
   </si>
   <si>
-    <t>1040 IH 70PALISADE, CO 81526</t>
-  </si>
-  <si>
     <t>LOVE'S TRAVEL STOP #826</t>
   </si>
   <si>
     <t>Exit 75</t>
   </si>
   <si>
-    <t>100 E CARDINAL WAY STE APARACHUTE, CO 81635</t>
-  </si>
-  <si>
     <t>TRAVEL CENTERS OF AMERICA #174 - DANNY &amp; CINDY GEORGE</t>
   </si>
   <si>
     <t>Exit 266</t>
   </si>
   <si>
-    <t>12151 W 44TH AVEWHEAT RIDGE, CO 80033</t>
-  </si>
-  <si>
     <t>FLYING J TRAVEL CENTER #619</t>
   </si>
   <si>
     <t>Exit 285</t>
   </si>
   <si>
-    <t>16751 E 32ND AVEAURORA, CO 80011</t>
-  </si>
-  <si>
     <t>Exit 295</t>
   </si>
   <si>
-    <t>1695 N WATKINS RDWATKINS, CO 80137</t>
-  </si>
-  <si>
     <t>Exit 299</t>
   </si>
   <si>
-    <t>1495 N MANILA RDBENNETT, CO 80102</t>
-  </si>
-  <si>
     <t>LOVE'S TRAVEL STOP #300</t>
   </si>
   <si>
     <t>Exit 304</t>
   </si>
   <si>
-    <t>1191 S 1ST STBENNETT, CO 80102</t>
-  </si>
-  <si>
     <t>FLYING J TRAVEL CENTER #621</t>
   </si>
   <si>
     <t>Exit 359</t>
   </si>
   <si>
-    <t>2495 WILLIAMS AVELIMON, CO 80828</t>
-  </si>
-  <si>
     <t>TRAVEL CENTERS OF AMERICA #228</t>
   </si>
   <si>
-    <t>2200 NINTH STLIMON, CO 80828</t>
-  </si>
-  <si>
     <t>SEIBERT TRAVEL PLAZA</t>
   </si>
   <si>
     <t>Exit 405</t>
   </si>
   <si>
-    <t>17507 CO 59SEIBERT, CO 80834</t>
-  </si>
-  <si>
     <t>AMPRIDE</t>
   </si>
   <si>
     <t>Exit 419</t>
   </si>
   <si>
-    <t>913 COLORADO AVESTRATTON, CO 80836</t>
-  </si>
-  <si>
     <t>LOVE'S TRAVEL STOP #644</t>
   </si>
   <si>
     <t>Exit 437</t>
   </si>
   <si>
-    <t>582 S LINCOLN STBURLINGTON, CO 80807</t>
-  </si>
-  <si>
     <t>AMACKS SINCLAIR</t>
   </si>
   <si>
     <t>Exit 438</t>
   </si>
   <si>
-    <t>100 ROSE AVEBURLINGTON, CO 80807</t>
-  </si>
-  <si>
     <t>LOVE'S TRAVEL STOP #377</t>
   </si>
   <si>
@@ -289,81 +205,54 @@
     <t>Exit 31</t>
   </si>
   <si>
-    <t>201 E BISON WAYHUDSON, CO 80642</t>
-  </si>
-  <si>
     <t>STUBS GAS &amp; OIL</t>
   </si>
   <si>
     <t>Exit 66</t>
   </si>
   <si>
-    <t>16740 CO 39WIGGINS, CO 80654</t>
-  </si>
-  <si>
     <t>REATA TRAVEL STOP</t>
   </si>
   <si>
     <t>Exit 82</t>
   </si>
   <si>
-    <t>1305 BARLOW RDFORT MORGAN, CO 80701</t>
-  </si>
-  <si>
     <t>LOVE'S TRAVEL STOP #649</t>
   </si>
   <si>
     <t>Exit 89</t>
   </si>
   <si>
-    <t>1015 HOSPITAL RDBRUSH, CO 80723</t>
-  </si>
-  <si>
     <t>TRAVEL CENTERS OF AMERICA EXPRESS #648</t>
   </si>
   <si>
     <t>Exit 90-A</t>
   </si>
   <si>
-    <t>1041 N COLORADO AVEBRUSH, CO 80723</t>
-  </si>
-  <si>
     <t>BRUSH TRAVEL PLAZA</t>
   </si>
   <si>
     <t>Exit 90-B</t>
   </si>
   <si>
-    <t>1156 N COLORADO AVEBRUSH, CO 80723</t>
-  </si>
-  <si>
     <t>ATWOOD SINCLAIR</t>
   </si>
   <si>
     <t>Exit 115</t>
   </si>
   <si>
-    <t>4513 CO 63ATWOOD, CO 80722</t>
-  </si>
-  <si>
     <t>EAGLE TRAVEL STOP</t>
   </si>
   <si>
     <t>Exit 125</t>
   </si>
   <si>
-    <t>20974 US 6STERLING, CO 80751</t>
-  </si>
-  <si>
     <t>REATA TRUCK STOP</t>
   </si>
   <si>
     <t>Exit 149</t>
   </si>
   <si>
-    <t>29525 CO 55CROOK, CO 80726</t>
-  </si>
-  <si>
     <t>SAPP BROTHERS TRAVEL CENTER</t>
   </si>
   <si>
@@ -373,15 +262,9 @@
     <t>Exit 4</t>
   </si>
   <si>
-    <t>7120 E 49TH AVECOMMERCE CITY, CO 80022</t>
-  </si>
-  <si>
     <t>TRAVEL CENTERS OF AMERICA #148 - RICK ASH</t>
   </si>
   <si>
-    <t>5101 QUEBEC STCOMMERCE CITY, CO 80022</t>
-  </si>
-  <si>
     <t>US-50</t>
   </si>
   <si>
@@ -391,81 +274,48 @@
     <t>Exit FOUR</t>
   </si>
   <si>
-    <t>690 DOC HOLLIDAY DRCANON CIY, CO 81212</t>
-  </si>
-  <si>
     <t>BLAIRS TRUCK STOP</t>
   </si>
   <si>
-    <t>2127 E MAIN STMONTROSE, CO 81401</t>
-  </si>
-  <si>
     <t>MONTROSE TRAVEL CENTER</t>
   </si>
   <si>
-    <t>1440 N TOWNSEND AVEMONTROSE, CO 81401</t>
-  </si>
-  <si>
     <t>LOVE'S TRAVEL STOP #23</t>
   </si>
   <si>
     <t>Exit LAMAR</t>
   </si>
   <si>
-    <t>605 N MAIN STLAMAR, CO 81052</t>
-  </si>
-  <si>
     <t>PILOT TRAVEL CENTER #1052</t>
   </si>
   <si>
-    <t>708 N MAIN STLAMAR, CO 81052</t>
-  </si>
-  <si>
     <t>PORTS TO PLAINS TRAVEL PLAZA</t>
   </si>
   <si>
-    <t>33110 CO RD 7LAMAR, CO 81052</t>
-  </si>
-  <si>
     <t>US-160</t>
   </si>
   <si>
     <t>UTE MOUNTAIN TRAVEL CENTER</t>
   </si>
   <si>
-    <t>1 E MIKE WASH RDTOWAOC, CO 81334</t>
-  </si>
-  <si>
     <t>LOVE'S TRAVEL STOP #850</t>
   </si>
   <si>
     <t>Exit RD</t>
   </si>
   <si>
-    <t>7006 HWY 160/491CORTEZ, CO 81321</t>
-  </si>
-  <si>
     <t>CLARENCE'S TRUCK STOP</t>
   </si>
   <si>
     <t>US-287</t>
   </si>
   <si>
-    <t>7116 US 287CAMPO, CO 81029</t>
-  </si>
-  <si>
     <t>LOVE'S TRAVEL STOP #653</t>
   </si>
   <si>
-    <t>15596 US 287EADS, CO 81036</t>
-  </si>
-  <si>
     <t>SPRINGFIELD TRUCK STOP</t>
   </si>
   <si>
-    <t>27080 US 287SPRINGFIELD, CO 81073</t>
-  </si>
-  <si>
     <t>3851 CO-119, Longmont, CO 80504</t>
   </si>
   <si>
@@ -491,6 +341,159 @@
   </si>
   <si>
     <t xml:space="preserve">closed permanently </t>
+  </si>
+  <si>
+    <t>9960 SANTA FE TRAIL TRINIDAD, CO 81082</t>
+  </si>
+  <si>
+    <t>99800 I-25 WALSENBURG, CO 81089</t>
+  </si>
+  <si>
+    <t>455 US 85 WALSENBURG, CO 81089</t>
+  </si>
+  <si>
+    <t>8950 S I-25 COLORADO CITY, CO 81004</t>
+  </si>
+  <si>
+    <t>1103 S SANTA FE AVE FOUNTAIN, CO 80817</t>
+  </si>
+  <si>
+    <t>1310 W BAPTIST RD MONUMENT, CO 80921</t>
+  </si>
+  <si>
+    <t>15455 TERRAZZO DR MONUMENT, CO 80132</t>
+  </si>
+  <si>
+    <t>3768 CO 52 FREDERICK, CO 80516</t>
+  </si>
+  <si>
+    <t>3851 CO 119 LONGMONT, CO 80504</t>
+  </si>
+  <si>
+    <t>3800 E CO 56 BERTHOUD, CO 80513</t>
+  </si>
+  <si>
+    <t>2842 SE FRONTAGE RD JOHNSTOWN, CO 80534</t>
+  </si>
+  <si>
+    <t>555 RAPTOR RD FRUITA, CO 81521</t>
+  </si>
+  <si>
+    <t>748 22 ROAD GRAND JUNCTION, CO 81505</t>
+  </si>
+  <si>
+    <t>2195 US 6 GRAND JUNCTION, CO 81505</t>
+  </si>
+  <si>
+    <t>2222 US 6 GRAND JUNCTION, CO 81505</t>
+  </si>
+  <si>
+    <t>1040 IH 70 PALISADE, CO 81526</t>
+  </si>
+  <si>
+    <t>12151 W 44TH AVE WHEAT RIDGE, CO 80033</t>
+  </si>
+  <si>
+    <t>16751 E 32ND AVE AURORA, CO 80011</t>
+  </si>
+  <si>
+    <t>1695 N WATKINS RD WATKINS, CO 80137</t>
+  </si>
+  <si>
+    <t>1495 N MANILA RD BENNETT, CO 80102</t>
+  </si>
+  <si>
+    <t>1191 S 1ST ST BENNETT, CO 80102</t>
+  </si>
+  <si>
+    <t>2495 WILLIAMS AVE LIMON, CO 80828</t>
+  </si>
+  <si>
+    <t>2200 NINTH ST LIMON, CO 80828</t>
+  </si>
+  <si>
+    <t>17507 CO 59 SEIBERT, CO 80834</t>
+  </si>
+  <si>
+    <t>913 COLORADO AVE STRATTON, CO 80836</t>
+  </si>
+  <si>
+    <t>582 S LINCOLN ST BURLINGTON, CO 80807</t>
+  </si>
+  <si>
+    <t>100 ROSE AVE BURLINGTON, CO 80807</t>
+  </si>
+  <si>
+    <t>201 E BISON WAY HUDSON, CO 80642</t>
+  </si>
+  <si>
+    <t>16740 CO 39 WIGGINS, CO 80654</t>
+  </si>
+  <si>
+    <t>1305 BARLOW RD FORT MORGAN, CO 80701</t>
+  </si>
+  <si>
+    <t>1015 HOSPITAL RD BRUSH, CO 80723</t>
+  </si>
+  <si>
+    <t>1041 N COLORADO AVE BRUSH, CO 80723</t>
+  </si>
+  <si>
+    <t>1156 N COLORADO AVE BRUSH, CO 80723</t>
+  </si>
+  <si>
+    <t>4513 CO 63 ATWOOD, CO 80722</t>
+  </si>
+  <si>
+    <t>20974 US 6 STERLING, CO 80751</t>
+  </si>
+  <si>
+    <t>29525 CO 55 CROOK, CO 80726</t>
+  </si>
+  <si>
+    <t>7120 E 49TH AVE COMMERCE CITY, CO 80022</t>
+  </si>
+  <si>
+    <t>5101 QUEBEC ST COMMERCE CITY, CO 80022</t>
+  </si>
+  <si>
+    <t>690 DOC HOLLIDAY DR CANON CIY, CO 81212</t>
+  </si>
+  <si>
+    <t>2127 E MAIN ST MONTROSE, CO 81401</t>
+  </si>
+  <si>
+    <t>1440 N TOWNSEND AVE MONTROSE, CO 81401</t>
+  </si>
+  <si>
+    <t>605 N MAIN ST LAMAR, CO 81052</t>
+  </si>
+  <si>
+    <t>708 N MAIN ST LAMAR, CO 81052</t>
+  </si>
+  <si>
+    <t>33110 CO RD 7 LAMAR, CO 81052</t>
+  </si>
+  <si>
+    <t>1 E MIKE WASH RD TOWAOC, CO 81334</t>
+  </si>
+  <si>
+    <t>7006 HWY 160/491 CORTEZ, CO 81321</t>
+  </si>
+  <si>
+    <t>7116 US 287 CAMPO, CO 81029</t>
+  </si>
+  <si>
+    <t>15596 US 287 EADS, CO 81036</t>
+  </si>
+  <si>
+    <t>27080 US 287 SPRINGFIELD, CO 81073</t>
+  </si>
+  <si>
+    <t>100 Cardinal Way, Parachute, CO 81635</t>
+  </si>
+  <si>
+    <t>This one I am not sure if it is an actual truck stop. Could you please review this</t>
   </si>
 </sst>
 </file>
@@ -998,11 +1001,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1380,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33799C42-CFDB-4D64-98FC-76870D5101F2}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1421,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1429,16 +1433,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1446,16 +1450,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1463,16 +1467,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1480,16 +1484,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1497,16 +1501,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1514,16 +1518,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1531,16 +1535,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1548,16 +1552,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1565,16 +1569,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1582,16 +1586,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1599,16 +1603,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1616,16 +1620,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1633,16 +1637,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1650,16 +1654,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1667,16 +1671,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1684,16 +1688,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1701,16 +1705,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1718,16 +1722,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1735,16 +1739,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1752,16 +1756,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1769,16 +1773,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1786,16 +1790,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1803,16 +1807,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1820,16 +1824,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1837,16 +1841,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1854,16 +1858,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1871,16 +1875,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1888,16 +1892,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1905,20 +1909,20 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1926,20 +1930,20 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1947,20 +1951,20 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1968,16 +1972,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1985,16 +1989,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2002,16 +2006,16 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2019,16 +2023,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2036,16 +2040,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2053,16 +2057,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2070,16 +2074,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2087,16 +2091,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2104,16 +2108,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2121,16 +2125,16 @@
         <v>5</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2138,14 +2142,17 @@
         <v>5</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2153,31 +2160,31 @@
         <v>5</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>130</v>
+      <c r="B46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2185,29 +2192,29 @@
         <v>5</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>134</v>
+      <c r="B48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2215,76 +2222,76 @@
         <v>5</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>140</v>
+      <c r="B50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>143</v>
+      <c r="B51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>145</v>
+      <c r="B52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
-        <v>147</v>
+      <c r="B53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
